--- a/biology/Botanique/Hedlundia/Hedlundia.xlsx
+++ b/biology/Botanique/Hedlundia/Hedlundia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hedlundia est un genre de plantes à fleurs de la famille des Rosaceae. Il regroupe des espèces hybridogènes issues de croisements entre les genres Aria et Sorbus.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est dédicacé à Johan Teodor Hedlund (es) (1861-1953), botaniste suédois spécialiste du genre Sorbus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est dédicacé à Johan Teodor Hedlund (es) (1861-1953), botaniste suédois spécialiste du genre Sorbus.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de petits arbres ou arbustes à feuilles simples, pennatilobées ou pennées à la base, blanches ou verdâtres en dessous, avec 7 à 15 paires de nervures latérales, avec des lobes petits à proéminents, longs, subaigus à obtus ou des folioles à la base, avec un nombre variable de dents. Les fleurs ont les pétales blancs et contiennent deux ou trois styles. Les fruits sont de taille moyenne, rouge à cramoisi, avec quelques petites lenticelles éparses[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de petits arbres ou arbustes à feuilles simples, pennatilobées ou pennées à la base, blanches ou verdâtres en dessous, avec 7 à 15 paires de nervures latérales, avec des lobes petits à proéminents, longs, subaigus à obtus ou des folioles à la base, avec un nombre variable de dents. Les fleurs ont les pétales blancs et contiennent deux ou trois styles. Les fruits sont de taille moyenne, rouge à cramoisi, avec quelques petites lenticelles éparses.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ce genre a été décrit en 2017 à la suite d'analyses phylogénétiques, pour prendre en compte les taxons hybridogènes issus de croisements entre diverses espèces des genres Aria et Sorbus. Il est traité comme un genre et non comme un nothogenre. L'espèce type est Hedlundia hybrida[1].
-Hedlundia a pour synonymes[1],[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ce genre a été décrit en 2017 à la suite d'analyses phylogénétiques, pour prendre en compte les taxons hybridogènes issus de croisements entre diverses espèces des genres Aria et Sorbus. Il est traité comme un genre et non comme un nothogenre. L'espèce type est Hedlundia hybrida.
+Hedlundia a pour synonymes, :
 Sorbus sect. Lobatae Gabrieljan
 Sorbus sect. Duales Zaik.
 Sorbus subgen. Soraria Májovský &amp; Bernátová</t>
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (17 février 2024)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (17 février 2024) :
 Hedlundia abscondita (Kovanda) Sennikov &amp; Kurtto
 Hedlundia anglica (Hedl.) Sennikov &amp; Kurtto
 Hedlundia armeniaca (Hedl.) Mezhenskyj
